--- a/data/trans_orig/dukeAFECT-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/dukeAFECT-Dificultad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>16.61079177229568</v>
+        <v>16.62067856230839</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>17.31748983285092</v>
+        <v>17.33383787879848</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16.43261950941718</v>
+        <v>16.42993430167264</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15.41754609677212</v>
+        <v>15.39228406330784</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>16.58881462242575</v>
+        <v>16.60456124337485</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>16.77940040079291</v>
+        <v>16.7969325597721</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>16.47084841112465</v>
+        <v>16.46261881933254</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>15.61200394152375</v>
+        <v>15.57851842176361</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>16.67795165767398</v>
+        <v>16.68020722522874</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17.10759608046293</v>
+        <v>17.1037558476383</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16.5015256884208</v>
+        <v>16.50002896647804</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>15.59802370336062</v>
+        <v>15.60239553573866</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.19389180106537</v>
+        <v>17.18393100374113</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.68797660761544</v>
+        <v>17.67430617229528</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.76022334144303</v>
+        <v>16.77476808121893</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.21550205163987</v>
+        <v>16.24550777327063</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>17.08617021547841</v>
+        <v>17.09991249722108</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>17.16869079723075</v>
+        <v>17.18304807129005</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>16.82688837229606</v>
+        <v>16.81434743994557</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>16.19247597703071</v>
+        <v>16.19217052283171</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.04297273173007</v>
+        <v>17.0544036492788</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17.36336464902613</v>
+        <v>17.37253426954323</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16.74712950487213</v>
+        <v>16.75600876469393</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>16.09781501996128</v>
+        <v>16.0865356718972</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>17.50136006550253</v>
+        <v>17.48990487787719</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>17.6353107458916</v>
+        <v>17.65756324047596</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.95909830469559</v>
+        <v>16.96002155758057</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.84672685224611</v>
+        <v>16.86405329686144</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>16.94756444137191</v>
+        <v>16.95653897155355</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>17.35554291769467</v>
+        <v>17.36810378947051</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>16.76783071358134</v>
+        <v>16.73959778528628</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>16.85125859027425</v>
+        <v>16.84660454578107</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>17.28923126042066</v>
+        <v>17.281313162087</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17.55095478920081</v>
+        <v>17.5541459115933</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16.90375662849183</v>
+        <v>16.9011591012395</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>16.9128845539023</v>
+        <v>16.90391860139862</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.8439480491678</v>
+        <v>17.83310992236132</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.99898294123019</v>
+        <v>17.9997370967743</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.30048998128527</v>
+        <v>17.30248612416202</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.26387886280434</v>
+        <v>17.26993692925293</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>17.35470944687913</v>
+        <v>17.36318188643599</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.68268737920995</v>
+        <v>17.69096396242211</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>17.10819317004984</v>
+        <v>17.09778682733306</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>17.16091842686027</v>
+        <v>17.1695324109977</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.5436689436127</v>
+        <v>17.55137137114361</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17.79316266926151</v>
+        <v>17.78932943448786</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17.14057861062971</v>
+        <v>17.15700046156415</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>17.16820979744851</v>
+        <v>17.15385806827547</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>17.59716555508215</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18.08733091790283</v>
+        <v>18.08733091790284</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>17.33555598592109</v>
@@ -953,7 +953,7 @@
         <v>17.32008039253738</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>17.95301605265554</v>
+        <v>17.95301605265553</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>17.53814094500442</v>
@@ -965,7 +965,7 @@
         <v>17.46334531799917</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>18.02014568333426</v>
+        <v>18.02014568333425</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>17.528516408163</v>
+        <v>17.54809498513074</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>17.73573486108713</v>
+        <v>17.71204666229841</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17.43506676766393</v>
+        <v>17.43020134949083</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17.89854062380804</v>
+        <v>17.92322144426951</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>17.13665848723609</v>
+        <v>17.13925447373324</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.73191534350798</v>
+        <v>17.75602999838796</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>17.12760756158247</v>
+        <v>17.11870725206897</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>17.80830712697984</v>
+        <v>17.81021241451352</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>17.41540041031619</v>
+        <v>17.41103415964721</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17.78416279980265</v>
+        <v>17.78955478928962</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17.33090744838093</v>
+        <v>17.33036736855017</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>17.92254646222458</v>
+        <v>17.90976233034825</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.86589998395286</v>
+        <v>17.87418251930679</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.04531245213233</v>
+        <v>18.04422789010372</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.76049295611342</v>
+        <v>17.76367978068508</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.23859166941367</v>
+        <v>18.23579683402311</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>17.51516196150484</v>
+        <v>17.50943778116653</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>18.04307352547393</v>
+        <v>18.05458602608202</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.47940298053667</v>
+        <v>17.50277499941243</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>18.08785897122197</v>
+        <v>18.09389532992715</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.65176203249288</v>
+        <v>17.64834323472541</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18.00490736331411</v>
+        <v>18.00556254804267</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17.57517996942772</v>
+        <v>17.58276339907207</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>18.12120447427302</v>
+        <v>18.11870811182932</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>17.4502529928973</v>
+        <v>17.46063710183948</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>17.93065669002375</v>
+        <v>17.98478040447051</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17.81766584518364</v>
+        <v>17.82691647704451</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18.02539382067335</v>
+        <v>18.00998458685749</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>17.61121081272143</v>
+        <v>17.62488511165601</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>18.07801211272625</v>
+        <v>18.0425596012127</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>17.49689538241568</v>
+        <v>17.49128327723204</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>18.01972615778487</v>
+        <v>18.01939955714153</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>17.60470388437097</v>
+        <v>17.58341636258818</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18.06396583515072</v>
+        <v>18.06039937765429</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17.72784579235798</v>
+        <v>17.72525469290769</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>18.08027618631924</v>
+        <v>18.07452868970358</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.96530863903824</v>
+        <v>17.97170455767624</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>18.3811917654823</v>
+        <v>18.38330148869096</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18.23439758851545</v>
+        <v>18.24473626510773</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18.35747972700432</v>
+        <v>18.34438819823739</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>18.15258277231498</v>
+        <v>18.15874925635867</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>18.48855523645551</v>
+        <v>18.46312303144125</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>17.98632150146057</v>
+        <v>17.98791685496457</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>18.35030129439012</v>
+        <v>18.35187180217039</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.97385157973366</v>
+        <v>17.97494940899752</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18.38179394570896</v>
+        <v>18.38243168295072</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>18.03835445429445</v>
+        <v>18.0527362485463</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>18.30561403272806</v>
+        <v>18.3069337813491</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>17.45500371157205</v>
+        <v>17.45258055670137</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>17.71547258566543</v>
+        <v>17.72021225083681</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17.1153442075685</v>
+        <v>17.10972915249867</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17.39655589655832</v>
+        <v>17.39053424632224</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>17.0928607152316</v>
+        <v>17.11327768703785</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>17.45687869540353</v>
+        <v>17.45008905790389</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>16.92690888120949</v>
+        <v>16.92685714916585</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>17.29562764892017</v>
+        <v>17.29173728467146</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>17.29314846732943</v>
+        <v>17.30325359322085</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17.61161827426922</v>
+        <v>17.59952224677376</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17.04709032356018</v>
+        <v>17.04533297165794</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>17.36850217129818</v>
+        <v>17.37059276139282</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.65589527480214</v>
+        <v>17.6572442479768</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.90172594271333</v>
+        <v>17.88994981679573</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.29564815750638</v>
+        <v>17.29655984641956</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.6158142084965</v>
+        <v>17.61952950000862</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>17.31281702319133</v>
+        <v>17.31356960611663</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>17.6320494832841</v>
+        <v>17.63009166592284</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>17.1219395490199</v>
+        <v>17.11735075195154</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>17.47804903890175</v>
+        <v>17.48264041234996</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>17.45263761631574</v>
+        <v>17.45627456815431</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17.73873350912556</v>
+        <v>17.73404003136522</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17.17456293811438</v>
+        <v>17.17838300867652</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>17.51334372188037</v>
+        <v>17.5137957743781</v>
       </c>
     </row>
     <row r="19">
